--- a/Output Data/Result TestCase1.xlsx
+++ b/Output Data/Result TestCase1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1681">
   <si>
     <t>1</t>
   </si>
@@ -4645,6 +4645,420 @@
   </si>
   <si>
     <t>08.02.2021 10.34.26</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.15.55</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.15.57</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.15.59</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.00</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.02</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.03</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.04</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.11</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.12</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.16.16</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.47</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.50</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.51</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.52</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.54</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.55</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.22.56</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.23.03</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.23.04</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.23.07</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.46</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.49</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.51</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.52</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.53</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.55</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.28.56</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.29.04</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.29.08</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.19</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.21</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.23</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.25</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.26</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.27</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.28</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.36</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.30.40</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.10</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.12</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.14</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.15</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.17</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.18</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.20</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.27</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.28</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.47.31</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.39</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.41</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.43</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.45</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.46</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.48</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.49</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.57</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.52.58</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.53.01</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.34</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.37</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.38</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.40</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.41</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.42</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.43</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.51</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.52</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>08.02.2021 01.54.55</t>
   </si>
 </sst>
 </file>
@@ -4977,7 +5391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D789"/>
+  <dimension ref="A2:D859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16012,6 +16426,986 @@
         <v>29</v>
       </c>
       <c r="D789" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2</v>
+      </c>
+      <c r="D790" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C791" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C792" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C793" t="s">
+        <v>11</v>
+      </c>
+      <c r="D793" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C794" t="s">
+        <v>14</v>
+      </c>
+      <c r="D794" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C795" t="s">
+        <v>17</v>
+      </c>
+      <c r="D795" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C796" t="s">
+        <v>20</v>
+      </c>
+      <c r="D796" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C797" t="s">
+        <v>23</v>
+      </c>
+      <c r="D797" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C798" t="s">
+        <v>26</v>
+      </c>
+      <c r="D798" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C799" t="s">
+        <v>29</v>
+      </c>
+      <c r="D799" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2</v>
+      </c>
+      <c r="D800" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C801" t="s">
+        <v>6</v>
+      </c>
+      <c r="D801" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C802" t="s">
+        <v>9</v>
+      </c>
+      <c r="D802" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C803" t="s">
+        <v>11</v>
+      </c>
+      <c r="D803" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C804" t="s">
+        <v>14</v>
+      </c>
+      <c r="D804" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C805" t="s">
+        <v>17</v>
+      </c>
+      <c r="D805" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C806" t="s">
+        <v>20</v>
+      </c>
+      <c r="D806" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C807" t="s">
+        <v>23</v>
+      </c>
+      <c r="D807" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C808" t="s">
+        <v>26</v>
+      </c>
+      <c r="D808" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C809" t="s">
+        <v>29</v>
+      </c>
+      <c r="D809" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2</v>
+      </c>
+      <c r="D810" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C811" t="s">
+        <v>6</v>
+      </c>
+      <c r="D811" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C812" t="s">
+        <v>9</v>
+      </c>
+      <c r="D812" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C813" t="s">
+        <v>11</v>
+      </c>
+      <c r="D813" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C814" t="s">
+        <v>14</v>
+      </c>
+      <c r="D814" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C815" t="s">
+        <v>17</v>
+      </c>
+      <c r="D815" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C816" t="s">
+        <v>20</v>
+      </c>
+      <c r="D816" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C817" t="s">
+        <v>23</v>
+      </c>
+      <c r="D817" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C818" t="s">
+        <v>26</v>
+      </c>
+      <c r="D818" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C819" t="s">
+        <v>29</v>
+      </c>
+      <c r="D819" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2</v>
+      </c>
+      <c r="D820" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C821" t="s">
+        <v>6</v>
+      </c>
+      <c r="D821" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C822" t="s">
+        <v>9</v>
+      </c>
+      <c r="D822" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C823" t="s">
+        <v>11</v>
+      </c>
+      <c r="D823" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C824" t="s">
+        <v>14</v>
+      </c>
+      <c r="D824" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C825" t="s">
+        <v>17</v>
+      </c>
+      <c r="D825" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C826" t="s">
+        <v>20</v>
+      </c>
+      <c r="D826" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C827" t="s">
+        <v>23</v>
+      </c>
+      <c r="D827" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C828" t="s">
+        <v>26</v>
+      </c>
+      <c r="D828" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C829" t="s">
+        <v>29</v>
+      </c>
+      <c r="D829" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2</v>
+      </c>
+      <c r="D830" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C831" t="s">
+        <v>6</v>
+      </c>
+      <c r="D831" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C832" t="s">
+        <v>9</v>
+      </c>
+      <c r="D832" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C833" t="s">
+        <v>11</v>
+      </c>
+      <c r="D833" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C834" t="s">
+        <v>14</v>
+      </c>
+      <c r="D834" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C835" t="s">
+        <v>17</v>
+      </c>
+      <c r="D835" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C836" t="s">
+        <v>20</v>
+      </c>
+      <c r="D836" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C837" t="s">
+        <v>23</v>
+      </c>
+      <c r="D837" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C838" t="s">
+        <v>26</v>
+      </c>
+      <c r="D838" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C839" t="s">
+        <v>29</v>
+      </c>
+      <c r="D839" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2</v>
+      </c>
+      <c r="D840" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C841" t="s">
+        <v>6</v>
+      </c>
+      <c r="D841" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C842" t="s">
+        <v>9</v>
+      </c>
+      <c r="D842" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C843" t="s">
+        <v>11</v>
+      </c>
+      <c r="D843" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C844" t="s">
+        <v>14</v>
+      </c>
+      <c r="D844" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C845" t="s">
+        <v>17</v>
+      </c>
+      <c r="D845" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C846" t="s">
+        <v>20</v>
+      </c>
+      <c r="D846" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C847" t="s">
+        <v>23</v>
+      </c>
+      <c r="D847" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C848" t="s">
+        <v>26</v>
+      </c>
+      <c r="D848" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C849" t="s">
+        <v>29</v>
+      </c>
+      <c r="D849" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C850" t="s">
+        <v>2</v>
+      </c>
+      <c r="D850" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C851" t="s">
+        <v>6</v>
+      </c>
+      <c r="D851" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C852" t="s">
+        <v>9</v>
+      </c>
+      <c r="D852" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C853" t="s">
+        <v>11</v>
+      </c>
+      <c r="D853" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C854" t="s">
+        <v>14</v>
+      </c>
+      <c r="D854" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C855" t="s">
+        <v>17</v>
+      </c>
+      <c r="D855" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C856" t="s">
+        <v>20</v>
+      </c>
+      <c r="D856" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C857" t="s">
+        <v>23</v>
+      </c>
+      <c r="D857" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C858" t="s">
+        <v>26</v>
+      </c>
+      <c r="D858" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C859" t="s">
+        <v>29</v>
+      </c>
+      <c r="D859" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Output Data/Result TestCase1.xlsx
+++ b/Output Data/Result TestCase1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="2151">
   <si>
     <t>1</t>
   </si>
@@ -5059,6 +5059,1416 @@
   </si>
   <si>
     <t>08.02.2021 01.54.55</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.09</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.11</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.13</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.15</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.16</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.24</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.24.28</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.00</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.02</t>
+  </si>
+  <si>
+    <t>871</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.03</t>
+  </si>
+  <si>
+    <t>872</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.04</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.05</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.06</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.07</t>
+  </si>
+  <si>
+    <t>876</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.15</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.25.18</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.41</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.42</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.43</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.44</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.46</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.47</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.55</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.26.59</t>
+  </si>
+  <si>
+    <t>889</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.30</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.32</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.33</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.34</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.35</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.36</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.37</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.44</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.33.48</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.28</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.29</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.30</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.31</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.32</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.33</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.34</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.42</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>11.17.2021 05.36.45</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.01</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.03</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.04</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.06</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.07</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.08</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.09</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.17</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.21</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.22</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.23</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.24</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.26</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.27</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.29</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.31</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.32</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.33</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.34</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.39.51</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.30</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.31</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.32</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.33</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.34</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.35</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.36</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.44</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.45</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.48</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.49</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.50</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.51</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.52</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.54</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.55</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.56</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.57</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.58</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.57.59</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.50</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.51</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.52</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.54</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.55</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>11.19.2021 11.59.56</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.04</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.08</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.09</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.10</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.11</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.12</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.13</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.14</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.15</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.16</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.17</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.18</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.34</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.35</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.00.51</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.11</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.23</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.34</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.43</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.44</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.45</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.46</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.47</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.48</t>
+  </si>
+  <si>
+    <t>992</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.01.49</t>
+  </si>
+  <si>
+    <t>994</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.02.14</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.36.59</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.01</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.02</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.03</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.04</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.06</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.07</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.15</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.19</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.20</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.22</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.23</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.25</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.27</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.28</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.29</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.31</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.32</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.37.49</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.23</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.25</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.27</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.28</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.30</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.32</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.33</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.41</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.45</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.46</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.47</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.49</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.51</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.52</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.54</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.55</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.57</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.48.58</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.49.16</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.10</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.12</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.14</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.15</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.17</t>
+  </si>
+  <si>
+    <t>1046</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.18</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.19</t>
+  </si>
+  <si>
+    <t>1048</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.27</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.28</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>11.19.2021 12.54.32</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.38</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.40</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.42</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.43</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.45</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.46</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.48</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.04.56</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.05.00</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.29</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.32</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.34</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.36</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.38</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.40</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.42</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.50</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.14.54</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.50.54</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.50.56</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.50.57</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.50.59</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.51.00</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.51.01</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.51.02</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.51.11</t>
+  </si>
+  <si>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.51.15</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.48</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.51</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.52</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.54</t>
+  </si>
+  <si>
+    <t>1085</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.55</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.56</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.56.57</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.57.05</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.57.06</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.57.09</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.11</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.13</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.15</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.16</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.17</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.19</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.20</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.27</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.28</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>11.19.2021 01.59.31</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.06.56</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.06.58</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.01</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.02</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.04</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.05</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.06</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.14</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>11.19.2021 02.07.18</t>
   </si>
 </sst>
 </file>
@@ -5391,7 +6801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D859"/>
+  <dimension ref="A2:D1111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17406,6 +18816,3534 @@
         <v>29</v>
       </c>
       <c r="D859" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C860" t="s">
+        <v>2</v>
+      </c>
+      <c r="D860" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C861" t="s">
+        <v>6</v>
+      </c>
+      <c r="D861" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C862" t="s">
+        <v>9</v>
+      </c>
+      <c r="D862" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C863" t="s">
+        <v>11</v>
+      </c>
+      <c r="D863" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C864" t="s">
+        <v>14</v>
+      </c>
+      <c r="D864" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C865" t="s">
+        <v>17</v>
+      </c>
+      <c r="D865" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C866" t="s">
+        <v>20</v>
+      </c>
+      <c r="D866" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C867" t="s">
+        <v>23</v>
+      </c>
+      <c r="D867" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C868" t="s">
+        <v>26</v>
+      </c>
+      <c r="D868" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C869" t="s">
+        <v>29</v>
+      </c>
+      <c r="D869" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C870" t="s">
+        <v>2</v>
+      </c>
+      <c r="D870" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C871" t="s">
+        <v>6</v>
+      </c>
+      <c r="D871" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C872" t="s">
+        <v>9</v>
+      </c>
+      <c r="D872" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C873" t="s">
+        <v>11</v>
+      </c>
+      <c r="D873" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C874" t="s">
+        <v>14</v>
+      </c>
+      <c r="D874" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C875" t="s">
+        <v>17</v>
+      </c>
+      <c r="D875" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C876" t="s">
+        <v>20</v>
+      </c>
+      <c r="D876" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C877" t="s">
+        <v>23</v>
+      </c>
+      <c r="D877" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C878" t="s">
+        <v>26</v>
+      </c>
+      <c r="D878" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C879" t="s">
+        <v>29</v>
+      </c>
+      <c r="D879" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2</v>
+      </c>
+      <c r="D880" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C881" t="s">
+        <v>6</v>
+      </c>
+      <c r="D881" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C882" t="s">
+        <v>9</v>
+      </c>
+      <c r="D882" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C883" t="s">
+        <v>11</v>
+      </c>
+      <c r="D883" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C884" t="s">
+        <v>14</v>
+      </c>
+      <c r="D884" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C885" t="s">
+        <v>17</v>
+      </c>
+      <c r="D885" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C886" t="s">
+        <v>20</v>
+      </c>
+      <c r="D886" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C887" t="s">
+        <v>23</v>
+      </c>
+      <c r="D887" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C888" t="s">
+        <v>26</v>
+      </c>
+      <c r="D888" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C889" t="s">
+        <v>29</v>
+      </c>
+      <c r="D889" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C890" t="s">
+        <v>2</v>
+      </c>
+      <c r="D890" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C891" t="s">
+        <v>6</v>
+      </c>
+      <c r="D891" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C892" t="s">
+        <v>9</v>
+      </c>
+      <c r="D892" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C893" t="s">
+        <v>11</v>
+      </c>
+      <c r="D893" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C894" t="s">
+        <v>14</v>
+      </c>
+      <c r="D894" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C895" t="s">
+        <v>17</v>
+      </c>
+      <c r="D895" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C896" t="s">
+        <v>20</v>
+      </c>
+      <c r="D896" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C897" t="s">
+        <v>23</v>
+      </c>
+      <c r="D897" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C898" t="s">
+        <v>26</v>
+      </c>
+      <c r="D898" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C899" t="s">
+        <v>29</v>
+      </c>
+      <c r="D899" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2</v>
+      </c>
+      <c r="D900" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C901" t="s">
+        <v>6</v>
+      </c>
+      <c r="D901" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C902" t="s">
+        <v>9</v>
+      </c>
+      <c r="D902" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C903" t="s">
+        <v>11</v>
+      </c>
+      <c r="D903" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C904" t="s">
+        <v>14</v>
+      </c>
+      <c r="D904" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C905" t="s">
+        <v>17</v>
+      </c>
+      <c r="D905" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C906" t="s">
+        <v>20</v>
+      </c>
+      <c r="D906" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C907" t="s">
+        <v>23</v>
+      </c>
+      <c r="D907" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C908" t="s">
+        <v>26</v>
+      </c>
+      <c r="D908" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C909" t="s">
+        <v>29</v>
+      </c>
+      <c r="D909" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2</v>
+      </c>
+      <c r="D910" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C911" t="s">
+        <v>6</v>
+      </c>
+      <c r="D911" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C912" t="s">
+        <v>9</v>
+      </c>
+      <c r="D912" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C913" t="s">
+        <v>11</v>
+      </c>
+      <c r="D913" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C914" t="s">
+        <v>14</v>
+      </c>
+      <c r="D914" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C915" t="s">
+        <v>17</v>
+      </c>
+      <c r="D915" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C916" t="s">
+        <v>20</v>
+      </c>
+      <c r="D916" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C917" t="s">
+        <v>23</v>
+      </c>
+      <c r="D917" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C918" t="s">
+        <v>26</v>
+      </c>
+      <c r="D918" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C919" t="s">
+        <v>29</v>
+      </c>
+      <c r="D919" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C920" t="s">
+        <v>51</v>
+      </c>
+      <c r="D920" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C921" t="s">
+        <v>54</v>
+      </c>
+      <c r="D921" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C922" t="s">
+        <v>57</v>
+      </c>
+      <c r="D922" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C923" t="s">
+        <v>60</v>
+      </c>
+      <c r="D923" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C924" t="s">
+        <v>63</v>
+      </c>
+      <c r="D924" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C925" t="s">
+        <v>66</v>
+      </c>
+      <c r="D925" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C926" t="s">
+        <v>69</v>
+      </c>
+      <c r="D926" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C927" t="s">
+        <v>72</v>
+      </c>
+      <c r="D927" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C928" t="s">
+        <v>74</v>
+      </c>
+      <c r="D928" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C929" t="s">
+        <v>77</v>
+      </c>
+      <c r="D929" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C930" t="s">
+        <v>79</v>
+      </c>
+      <c r="D930" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C931" t="s">
+        <v>81</v>
+      </c>
+      <c r="D931" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C932" t="s">
+        <v>84</v>
+      </c>
+      <c r="D932" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2</v>
+      </c>
+      <c r="D933" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C934" t="s">
+        <v>6</v>
+      </c>
+      <c r="D934" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C935" t="s">
+        <v>9</v>
+      </c>
+      <c r="D935" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C936" t="s">
+        <v>11</v>
+      </c>
+      <c r="D936" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C937" t="s">
+        <v>14</v>
+      </c>
+      <c r="D937" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C938" t="s">
+        <v>17</v>
+      </c>
+      <c r="D938" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C939" t="s">
+        <v>20</v>
+      </c>
+      <c r="D939" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C940" t="s">
+        <v>23</v>
+      </c>
+      <c r="D940" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C941" t="s">
+        <v>26</v>
+      </c>
+      <c r="D941" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C942" t="s">
+        <v>29</v>
+      </c>
+      <c r="D942" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C943" t="s">
+        <v>51</v>
+      </c>
+      <c r="D943" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C944" t="s">
+        <v>54</v>
+      </c>
+      <c r="D944" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C945" t="s">
+        <v>57</v>
+      </c>
+      <c r="D945" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C946" t="s">
+        <v>60</v>
+      </c>
+      <c r="D946" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C947" t="s">
+        <v>63</v>
+      </c>
+      <c r="D947" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C948" t="s">
+        <v>66</v>
+      </c>
+      <c r="D948" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C949" t="s">
+        <v>69</v>
+      </c>
+      <c r="D949" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C950" t="s">
+        <v>72</v>
+      </c>
+      <c r="D950" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C951" t="s">
+        <v>74</v>
+      </c>
+      <c r="D951" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C952" t="s">
+        <v>77</v>
+      </c>
+      <c r="D952" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C953" t="s">
+        <v>79</v>
+      </c>
+      <c r="D953" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C954" t="s">
+        <v>81</v>
+      </c>
+      <c r="D954" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C955" t="s">
+        <v>84</v>
+      </c>
+      <c r="D955" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2</v>
+      </c>
+      <c r="D956" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C957" t="s">
+        <v>6</v>
+      </c>
+      <c r="D957" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C958" t="s">
+        <v>9</v>
+      </c>
+      <c r="D958" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C959" t="s">
+        <v>11</v>
+      </c>
+      <c r="D959" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C960" t="s">
+        <v>14</v>
+      </c>
+      <c r="D960" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C961" t="s">
+        <v>17</v>
+      </c>
+      <c r="D961" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C962" t="s">
+        <v>20</v>
+      </c>
+      <c r="D962" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C963" t="s">
+        <v>23</v>
+      </c>
+      <c r="D963" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C964" t="s">
+        <v>26</v>
+      </c>
+      <c r="D964" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C965" t="s">
+        <v>29</v>
+      </c>
+      <c r="D965" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C966" t="s">
+        <v>51</v>
+      </c>
+      <c r="D966" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C967" t="s">
+        <v>54</v>
+      </c>
+      <c r="D967" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C968" t="s">
+        <v>57</v>
+      </c>
+      <c r="D968" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C969" t="s">
+        <v>60</v>
+      </c>
+      <c r="D969" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C970" t="s">
+        <v>63</v>
+      </c>
+      <c r="D970" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C971" t="s">
+        <v>66</v>
+      </c>
+      <c r="D971" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C972" t="s">
+        <v>69</v>
+      </c>
+      <c r="D972" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C973" t="s">
+        <v>72</v>
+      </c>
+      <c r="D973" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C974" t="s">
+        <v>74</v>
+      </c>
+      <c r="D974" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C975" t="s">
+        <v>77</v>
+      </c>
+      <c r="D975" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C976" t="s">
+        <v>79</v>
+      </c>
+      <c r="D976" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C977" t="s">
+        <v>81</v>
+      </c>
+      <c r="D977" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C978" t="s">
+        <v>84</v>
+      </c>
+      <c r="D978" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C979" t="s">
+        <v>86</v>
+      </c>
+      <c r="D979" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C980" t="s">
+        <v>89</v>
+      </c>
+      <c r="D980" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C981" t="s">
+        <v>92</v>
+      </c>
+      <c r="D981" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C982" t="s">
+        <v>95</v>
+      </c>
+      <c r="D982" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C983" t="s">
+        <v>98</v>
+      </c>
+      <c r="D983" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C984" t="s">
+        <v>101</v>
+      </c>
+      <c r="D984" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C985" t="s">
+        <v>103</v>
+      </c>
+      <c r="D985" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C986" t="s">
+        <v>105</v>
+      </c>
+      <c r="D986" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C987" t="s">
+        <v>107</v>
+      </c>
+      <c r="D987" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C988" t="s">
+        <v>110</v>
+      </c>
+      <c r="D988" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C989" t="s">
+        <v>112</v>
+      </c>
+      <c r="D989" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C990" t="s">
+        <v>115</v>
+      </c>
+      <c r="D990" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C991" t="s">
+        <v>117</v>
+      </c>
+      <c r="D991" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C992" t="s">
+        <v>119</v>
+      </c>
+      <c r="D992" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C993" t="s">
+        <v>121</v>
+      </c>
+      <c r="D993" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C994" t="s">
+        <v>124</v>
+      </c>
+      <c r="D994" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C995" t="s">
+        <v>127</v>
+      </c>
+      <c r="D995" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C996" t="s">
+        <v>2</v>
+      </c>
+      <c r="D996" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C997" t="s">
+        <v>6</v>
+      </c>
+      <c r="D997" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C998" t="s">
+        <v>9</v>
+      </c>
+      <c r="D998" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C999" t="s">
+        <v>11</v>
+      </c>
+      <c r="D999" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1111" t="s">
         <v>3</v>
       </c>
     </row>
